--- a/함수_파일_명_표준화 (1).xlsx
+++ b/함수_파일_명_표준화 (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>고유번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,10 @@
   </si>
   <si>
     <t>확인용 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -538,7 +542,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -622,6 +626,9 @@
       </c>
       <c r="B7" t="s">
         <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">

--- a/함수_파일_명_표준화 (1).xlsx
+++ b/함수_파일_명_표준화 (1).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>고유번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,31 +50,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>index.jsp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>확인용 사용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd</t>
+    <t>index.css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>borViewSer.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memInformation.sjp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memInformationSer.sjp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalership.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalershipSer.jsp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈페이지의 메인 페이지 파일 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정 페이지명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>borView의 서블릿페이지명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.jsp 파일의 javascript 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index.jsp 파일의 css 파일명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 수정시 쿼리를 수행할 서블릿 페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장학정보페이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장학정보페이지를 보여줄 서블릿 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +188,127 @@
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -230,7 +386,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="고유번호"/>
@@ -542,14 +698,13 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="98.19921875" customWidth="1"/>
     <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -573,10 +728,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -589,8 +747,11 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -601,7 +762,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -609,7 +776,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -617,7 +790,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -625,21 +804,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
@@ -1298,25 +1498,45 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A3:B1048576 E2:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1 E2:XFD1048576 A3:B1048576">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"중복"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B8">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="중복">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="중복">
       <formula>NOT(ISERROR(SEARCH("중복",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C9">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"중복"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C8">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="중복">
+      <formula>NOT(ISERROR(SEARCH("중복",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C9">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C9">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C9">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/함수_파일_명_표준화 (1).xlsx
+++ b/함수_파일_명_표준화 (1).xlsx
@@ -1,177 +1,628 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\Git\test01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>고유번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>함수명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>적용 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>함수명 중복시 빨강 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기타</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>index.jsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>index.css</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>index.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>borViewSer.jsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>memInformation.sjp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>memInformationSer.sjp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>scalership.jsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>scalershipSer.jsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>홈페이지의 메인 페이지 파일 명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원정보 수정 페이지명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>borView의 서블릿페이지명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>index.jsp 파일의 javascript 파일명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>index.jsp 파일의 css 파일명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>회원정보 수정시 쿼리를 수행할 서블릿 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장학정보페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>장학정보페이지를 보여줄 서블릿 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice.html</t>
+  </si>
+  <si>
+    <t>공지사항 html 페이지</t>
+  </si>
+  <si>
+    <t>notice.css</t>
+  </si>
+  <si>
+    <t>공지사항 페이지의 css 파일</t>
+  </si>
+  <si>
+    <t>community.html</t>
+  </si>
+  <si>
+    <t>커뮤니티 html 페이지</t>
+  </si>
+  <si>
+    <t>community.css</t>
+  </si>
+  <si>
+    <t>커뮤니티 페이지의 css 파일</t>
+  </si>
+  <si>
+    <t>commuCorrect.html</t>
+  </si>
+  <si>
+    <t>커뮤니티 글 수정 html 페이지</t>
+  </si>
+  <si>
+    <t>commuCorrect.css</t>
+  </si>
+  <si>
+    <t>커뮤니티 글 수정 페이지의 css 파일</t>
+  </si>
+  <si>
+    <t>scalerSearch.html</t>
+  </si>
+  <si>
+    <t>장학금 검색 html 페이지</t>
+  </si>
+  <si>
+    <t>scalerSearch.css</t>
+  </si>
+  <si>
+    <t>장학금 검색 페이지의 css 파일</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="22">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -184,9 +635,56 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="10" builtinId="11"/>
+    <cellStyle name="계산" xfId="18" builtinId="22"/>
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="메모" xfId="9" builtinId="10"/>
+    <cellStyle name="백분율" xfId="4" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="2" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="16" builtinId="20"/>
+    <cellStyle name="제목" xfId="11" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="17" builtinId="21"/>
+    <cellStyle name="통화" xfId="3" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -309,9 +807,7 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+    <dxf/>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -374,19 +870,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="A1:D1048576" totalsRowShown="0">
   <autoFilter ref="A1:D1048576"/>
   <tableColumns count="4">
     <tableColumn id="1" name="고유번호"/>
@@ -694,22 +1182,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.400000"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.19921875" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="3" width="21.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="98.25499725" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" width="22.25499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,781 +1211,853 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2">
+    <row r="2" spans="1:7">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3">
+    <row r="3" spans="1:7">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4">
+    <row r="4" spans="1:7">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="5" spans="1:7">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="6" spans="1:7">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7">
+    <row r="7" spans="1:7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8">
+    <row r="8" spans="1:7">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9">
+    <row r="9" spans="1:7">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:7">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="B10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="B12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="B13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="B14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="B15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="B16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="B17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:4">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="20" spans="1:4">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21">
+    <row r="21" spans="1:4">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22">
+    <row r="22" spans="1:4">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="23" spans="1:4">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24">
+    <row r="24" spans="1:4">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="25" spans="1:4">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26">
+    <row r="26" spans="1:4">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27">
+    <row r="27" spans="1:4">
+      <c r="A27" s="0">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="28" spans="1:4">
+      <c r="A28" s="0">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29">
+    <row r="29" spans="1:4">
+      <c r="A29" s="0">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30">
+    <row r="30" spans="1:4">
+      <c r="A30" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31">
+    <row r="31" spans="1:4">
+      <c r="A31" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32">
+    <row r="32" spans="1:4">
+      <c r="A32" s="0">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33">
+    <row r="33" spans="1:1">
+      <c r="A33" s="0">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34">
+    <row r="34" spans="1:1">
+      <c r="A34" s="0">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35">
+    <row r="35" spans="1:1">
+      <c r="A35" s="0">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A36">
+    <row r="36" spans="1:1">
+      <c r="A36" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A37">
+    <row r="37" spans="1:1">
+      <c r="A37" s="0">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38">
+    <row r="38" spans="1:1">
+      <c r="A38" s="0">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A39">
+    <row r="39" spans="1:1">
+      <c r="A39" s="0">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A40">
+    <row r="40" spans="1:1">
+      <c r="A40" s="0">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A41">
+    <row r="41" spans="1:1">
+      <c r="A41" s="0">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42">
+    <row r="42" spans="1:1">
+      <c r="A42" s="0">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A43">
+    <row r="43" spans="1:1">
+      <c r="A43" s="0">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A44">
+    <row r="44" spans="1:1">
+      <c r="A44" s="0">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A45">
+    <row r="45" spans="1:1">
+      <c r="A45" s="0">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A46">
+    <row r="46" spans="1:1">
+      <c r="A46" s="0">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A47">
+    <row r="47" spans="1:1">
+      <c r="A47" s="0">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48">
+    <row r="48" spans="1:1">
+      <c r="A48" s="0">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49">
+    <row r="49" spans="1:1">
+      <c r="A49" s="0">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A50">
+    <row r="50" spans="1:1">
+      <c r="A50" s="0">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A51">
+    <row r="51" spans="1:1">
+      <c r="A51" s="0">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52">
+    <row r="52" spans="1:1">
+      <c r="A52" s="0">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53">
+    <row r="53" spans="1:1">
+      <c r="A53" s="0">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54">
+    <row r="54" spans="1:1">
+      <c r="A54" s="0">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55">
+    <row r="55" spans="1:1">
+      <c r="A55" s="0">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56">
+    <row r="56" spans="1:1">
+      <c r="A56" s="0">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57">
+    <row r="57" spans="1:1">
+      <c r="A57" s="0">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58">
+    <row r="58" spans="1:1">
+      <c r="A58" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59">
+    <row r="59" spans="1:1">
+      <c r="A59" s="0">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60">
+    <row r="60" spans="1:1">
+      <c r="A60" s="0">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61">
+    <row r="61" spans="1:1">
+      <c r="A61" s="0">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62">
+    <row r="62" spans="1:1">
+      <c r="A62" s="0">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A63">
+    <row r="63" spans="1:1">
+      <c r="A63" s="0">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64">
+    <row r="64" spans="1:1">
+      <c r="A64" s="0">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65">
+    <row r="65" spans="1:1">
+      <c r="A65" s="0">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A66">
+    <row r="66" spans="1:1">
+      <c r="A66" s="0">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67">
+    <row r="67" spans="1:1">
+      <c r="A67" s="0">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68">
+    <row r="68" spans="1:1">
+      <c r="A68" s="0">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A69">
+    <row r="69" spans="1:1">
+      <c r="A69" s="0">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70">
+    <row r="70" spans="1:1">
+      <c r="A70" s="0">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71">
+    <row r="71" spans="1:1">
+      <c r="A71" s="0">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72">
+    <row r="72" spans="1:1">
+      <c r="A72" s="0">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A73">
+    <row r="73" spans="1:1">
+      <c r="A73" s="0">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A74">
+    <row r="74" spans="1:1">
+      <c r="A74" s="0">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A75">
+    <row r="75" spans="1:1">
+      <c r="A75" s="0">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A76">
+    <row r="76" spans="1:1">
+      <c r="A76" s="0">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A77">
+    <row r="77" spans="1:1">
+      <c r="A77" s="0">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A78">
+    <row r="78" spans="1:1">
+      <c r="A78" s="0">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A79">
+    <row r="79" spans="1:1">
+      <c r="A79" s="0">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A80">
+    <row r="80" spans="1:1">
+      <c r="A80" s="0">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A81">
+    <row r="81" spans="1:1">
+      <c r="A81" s="0">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A82">
+    <row r="82" spans="1:1">
+      <c r="A82" s="0">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A83">
+    <row r="83" spans="1:1">
+      <c r="A83" s="0">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A84">
+    <row r="84" spans="1:1">
+      <c r="A84" s="0">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A85">
+    <row r="85" spans="1:1">
+      <c r="A85" s="0">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A86">
+    <row r="86" spans="1:1">
+      <c r="A86" s="0">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A87">
+    <row r="87" spans="1:1">
+      <c r="A87" s="0">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A88">
+    <row r="88" spans="1:1">
+      <c r="A88" s="0">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A89">
+    <row r="89" spans="1:1">
+      <c r="A89" s="0">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A90">
+    <row r="90" spans="1:1">
+      <c r="A90" s="0">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A91">
+    <row r="91" spans="1:1">
+      <c r="A91" s="0">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A92">
+    <row r="92" spans="1:1">
+      <c r="A92" s="0">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A93">
+    <row r="93" spans="1:1">
+      <c r="A93" s="0">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A94">
+    <row r="94" spans="1:1">
+      <c r="A94" s="0">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A95">
+    <row r="95" spans="1:1">
+      <c r="A95" s="0">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A96">
+    <row r="96" spans="1:1">
+      <c r="A96" s="0">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A97">
+    <row r="97" spans="1:1">
+      <c r="A97" s="0">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A98">
+    <row r="98" spans="1:1">
+      <c r="A98" s="0">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A99">
+    <row r="99" spans="1:1">
+      <c r="A99" s="0">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A100">
+    <row r="100" spans="1:1">
+      <c r="A100" s="0">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A101">
+    <row r="101" spans="1:1">
+      <c r="A101" s="0">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A102">
+    <row r="102" spans="1:1">
+      <c r="A102" s="0">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A103">
+    <row r="103" spans="1:1">
+      <c r="A103" s="0">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A104">
+    <row r="104" spans="1:1">
+      <c r="A104" s="0">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A105">
+    <row r="105" spans="1:1">
+      <c r="A105" s="0">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A106">
+    <row r="106" spans="1:1">
+      <c r="A106" s="0">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A107">
+    <row r="107" spans="1:1">
+      <c r="A107" s="0">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A108">
+    <row r="108" spans="1:1">
+      <c r="A108" s="0">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A109">
+    <row r="109" spans="1:1">
+      <c r="A109" s="0">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A110">
+    <row r="110" spans="1:1">
+      <c r="A110" s="0">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A111">
+    <row r="111" spans="1:1">
+      <c r="A111" s="0">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A112">
+    <row r="112" spans="1:1">
+      <c r="A112" s="0">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A113">
+    <row r="113" spans="1:1">
+      <c r="A113" s="0">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A114">
+    <row r="114" spans="1:1">
+      <c r="A114" s="0">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A115">
+    <row r="115" spans="1:1">
+      <c r="A115" s="0">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A116">
+    <row r="116" spans="1:1">
+      <c r="A116" s="0">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A117">
+    <row r="117" spans="1:1">
+      <c r="A117" s="0">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A118">
+    <row r="118" spans="1:1">
+      <c r="A118" s="0">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A119">
+    <row r="119" spans="1:1">
+      <c r="A119" s="0">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A120">
+    <row r="120" spans="1:1">
+      <c r="A120" s="0">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A121">
+    <row r="121" spans="1:1">
+      <c r="A121" s="0">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A122">
+    <row r="122" spans="1:1">
+      <c r="A122" s="0">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A123">
+    <row r="123" spans="1:1">
+      <c r="A123" s="0">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A124">
+    <row r="124" spans="1:1">
+      <c r="A124" s="0">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A125">
+    <row r="125" spans="1:1">
+      <c r="A125" s="0">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A126">
+    <row r="126" spans="1:1">
+      <c r="A126" s="0">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A127">
+    <row r="127" spans="1:1">
+      <c r="A127" s="0">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A128">
+    <row r="128" spans="1:1">
+      <c r="A128" s="0">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A129">
+    <row r="129" spans="1:1">
+      <c r="A129" s="0">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A130">
+    <row r="130" spans="1:1">
+      <c r="A130" s="0">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A131">
+    <row r="131" spans="1:1">
+      <c r="A131" s="0">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A132">
+    <row r="132" spans="1:1">
+      <c r="A132" s="0">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A133">
+    <row r="133" spans="1:1">
+      <c r="A133" s="0">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A134">
+    <row r="134" spans="1:1">
+      <c r="A134" s="0">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A135">
+    <row r="135" spans="1:1">
+      <c r="A135" s="0">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A136">
+    <row r="136" spans="1:1">
+      <c r="A136" s="0">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A137">
+    <row r="137" spans="1:1">
+      <c r="A137" s="0">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A138">
+    <row r="138" spans="1:1">
+      <c r="A138" s="0">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A139">
+    <row r="139" spans="1:1">
+      <c r="A139" s="0">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A140">
+    <row r="140" spans="1:1">
+      <c r="A140" s="0">
         <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 E2:XFD1048576 A3:B1048576">
     <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"중복"</formula>
@@ -1538,10 +2098,10 @@
   <conditionalFormatting sqref="C3:C9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId0"/>
   </tableParts>
 </worksheet>
 </file>
--- a/함수_파일_명_표준화 (1).xlsx
+++ b/함수_파일_명_표준화 (1).xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\Git\test01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="36" windowWidth="25752" windowHeight="11592" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
   <si>
     <t>고유번호</t>
   </si>
@@ -129,166 +133,64 @@
   </si>
   <si>
     <t>장학금 검색 페이지의 css 파일</t>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="10"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color theme="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF7F7F7F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -296,335 +198,27 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,59 +228,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="10" builtinId="11"/>
-    <cellStyle name="계산" xfId="18" builtinId="22"/>
+  <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
-    <cellStyle name="메모" xfId="9" builtinId="10"/>
-    <cellStyle name="백분율" xfId="4" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="19" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="2" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="21" builtinId="25"/>
-    <cellStyle name="입력" xfId="16" builtinId="20"/>
-    <cellStyle name="제목" xfId="11" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="12" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="13" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="14" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="15" builtinId="19"/>
-    <cellStyle name="좋음" xfId="22" builtinId="26"/>
-    <cellStyle name="출력" xfId="17" builtinId="21"/>
-    <cellStyle name="통화" xfId="3" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="6" builtinId="7"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -807,69 +359,16 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1182,22 +681,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.400000"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="3" width="21.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" width="98.25499725" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" width="22.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="3" width="21.296875" customWidth="1"/>
+    <col min="4" max="4" width="98.296875" customWidth="1"/>
+    <col min="7" max="7" width="22.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1211,872 +710,875 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="0">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="0">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="0">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="0">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="0">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="0">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="0">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="0">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="0">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="0">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="0">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="0">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="0">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="0">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="0">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="0">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="0">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="0">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="0">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="0">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="0">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="0">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="0">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="0">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="0">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="0">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="0">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="0">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="0">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="0">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="0">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="0">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="0">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="0">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="0">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="0">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="0">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="0">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="0">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="0">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="0">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="0">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="0">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="0">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="0">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="0">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="0">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="0">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="0">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="0">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="0">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="0">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="0">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="0">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="0">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="0">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="0">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="0">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="0">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="0">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="0">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="0">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="0">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="0">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="0">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="0">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="0">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="0">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="0">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="0">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="0">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="0">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="0">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="0">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="0">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="0">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="0">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="0">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="0">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="0">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="0">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="0">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="0">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="0">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="0">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="0">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="0">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="0">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="0">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="0">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="0">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="0">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="0">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="0">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="0">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="0">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="0">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="0">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="0">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="0">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="0">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="0">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="0">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="0">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="0">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="0">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="0">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="0">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="0">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="0">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="0">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="0">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="0">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="0">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="0">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="0">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="0">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="0">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="0">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="0">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="0">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="0">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="0">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="0">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="0">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="0">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="0">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="0">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="0">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="0">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="0">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="0">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="0">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="0">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="0">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="0">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="0">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="0">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 E2:XFD1048576 A3:B1048576">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>"중복"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B8">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="중복">
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="중복">
       <formula>NOT(ISERROR(SEARCH("중복",A4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A3:B1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:D1 A2:B1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
@@ -2098,10 +1600,10 @@
   <conditionalFormatting sqref="C3:C9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId0"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>